--- a/spine_projects/01_input_data/01_input_raw/methanol/Model_Data_Base_methanol_4_InOutputs.xlsx
+++ b/spine_projects/01_input_data/01_input_raw/methanol/Model_Data_Base_methanol_4_InOutputs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\methanol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/methanol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63BCB0A-9012-4F55-92B6-F45564B797E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="13_ncr:1_{B63BCB0A-9012-4F55-92B6-F45564B797E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C9B3E93-63E4-45FE-9B4A-77A1A5CE0B4D}"/>
   <bookViews>
-    <workbookView xWindow="-5070" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-19440" yWindow="-17610" windowWidth="20865" windowHeight="11880" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="120">
   <si>
     <t>Unit</t>
   </si>
@@ -118,30 +118,6 @@
     <t>min_down_time</t>
   </si>
   <si>
-    <t>ramp_up_Output1</t>
-  </si>
-  <si>
-    <t>ramp_up_Output2</t>
-  </si>
-  <si>
-    <t>ramp_down_Output1</t>
-  </si>
-  <si>
-    <t>ramp_down_Output2</t>
-  </si>
-  <si>
-    <t>start_up_Output1</t>
-  </si>
-  <si>
-    <t>start_up_Output2</t>
-  </si>
-  <si>
-    <t>shut_down_Output1</t>
-  </si>
-  <si>
-    <t>shut_down_Output2</t>
-  </si>
-  <si>
     <t>Relation_In_In</t>
   </si>
   <si>
@@ -376,18 +352,6 @@
     <t>pl_ch3oh_st</t>
   </si>
   <si>
-    <t>minimum_op_point_Input1</t>
-  </si>
-  <si>
-    <t>minimum_op_point_Input2</t>
-  </si>
-  <si>
-    <t>minimum_op_point_Output1</t>
-  </si>
-  <si>
-    <t>minimum_op_point_Output2</t>
-  </si>
-  <si>
     <t>initial_units_on</t>
   </si>
   <si>
@@ -439,7 +403,37 @@
     <t>Relation_Out1_Out4</t>
   </si>
   <si>
-    <t>heat_high_reactor</t>
+    <t>unit_capacity</t>
+  </si>
+  <si>
+    <t>wind_onshore</t>
+  </si>
+  <si>
+    <t>wind_offshore</t>
+  </si>
+  <si>
+    <t>shut_down_limit</t>
+  </si>
+  <si>
+    <t>start_up_limit</t>
+  </si>
+  <si>
+    <t>ramp_up</t>
+  </si>
+  <si>
+    <t>ramp_down</t>
+  </si>
+  <si>
+    <t>water_import</t>
+  </si>
+  <si>
+    <t>water_source</t>
+  </si>
+  <si>
+    <t>co2_import</t>
+  </si>
+  <si>
+    <t>co2_source</t>
   </si>
 </sst>
 </file>
@@ -530,7 +524,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -538,16 +532,31 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="27">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -946,54 +955,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1217,35 +1178,69 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1268,45 +1263,29 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}" name="Table1" displayName="Table1" ref="A1:AL7" totalsRowShown="0">
-  <autoFilter ref="A1:AL7" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
-  <tableColumns count="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}" name="Table1" displayName="Table1" ref="A1:R11" totalsRowShown="0">
+  <autoFilter ref="A1:R11" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
+  <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{C73E51D0-1842-42F3-9C00-F0DBD2E661BE}" name="Unit"/>
     <tableColumn id="40" xr3:uid="{C2CFC5A4-5329-4F74-926A-18CEB18C062C}" name="Object_type"/>
-    <tableColumn id="2" xr3:uid="{FA8BE796-DE15-407E-8998-92C973AE35A4}" name="Input1"/>
-    <tableColumn id="3" xr3:uid="{168877A6-E181-4446-9569-F36E8CEB8908}" name="Input2"/>
-    <tableColumn id="9" xr3:uid="{1D825F78-585E-4E00-B6A7-3EB53F66BD46}" name="Input3"/>
-    <tableColumn id="10" xr3:uid="{AF3B07EA-3BFD-4195-8DCE-268253F50FE2}" name="Input4"/>
-    <tableColumn id="4" xr3:uid="{C03E717E-B39B-450F-A07B-8C087AA65297}" name="Output1"/>
-    <tableColumn id="5" xr3:uid="{1193D369-BC65-45A6-8749-4CD88E2C1722}" name="Output2"/>
-    <tableColumn id="17" xr3:uid="{B33CF3A4-AE20-46B5-8489-82AC44272808}" name="Output3"/>
-    <tableColumn id="18" xr3:uid="{DB0EBBAA-CF0E-4FD2-82DB-AE2740D80220}" name="Output4"/>
+    <tableColumn id="19" xr3:uid="{976E2DCC-BEF9-4E7C-96F4-92D75CC694A2}" name="unit_capacity"/>
     <tableColumn id="35" xr3:uid="{C3887B4E-C4A5-42AB-A92F-97AD44212E95}" name="mean_efficiency"/>
     <tableColumn id="8" xr3:uid="{5F719CEE-A0F7-452C-B82C-E739C5FED49B}" name="min_down_time"/>
-    <tableColumn id="26" xr3:uid="{D0F85E7B-D704-45A0-BE99-26E3A1F08634}" name="ramp_up_Output1"/>
-    <tableColumn id="28" xr3:uid="{EBC4610B-47F0-44E3-8543-664851FC473C}" name="ramp_up_Output2"/>
-    <tableColumn id="27" xr3:uid="{DC89C4F2-3857-45F2-B4A0-642F9C1613A6}" name="ramp_down_Output1"/>
-    <tableColumn id="29" xr3:uid="{5A66563E-85FF-4FFA-9DB7-EAC64F37E721}" name="ramp_down_Output2"/>
-    <tableColumn id="30" xr3:uid="{98C94D50-387A-4596-96E7-17395B3AF62E}" name="start_up_Output1"/>
-    <tableColumn id="31" xr3:uid="{FF26E17F-A633-477F-A8B8-3FD0C0B88F7D}" name="start_up_Output2"/>
-    <tableColumn id="32" xr3:uid="{D45EEC70-4FBC-44FF-9E9A-E2D38C52BF94}" name="shut_down_Output1"/>
-    <tableColumn id="33" xr3:uid="{D8C88D78-E68F-45EF-8A97-7C1F84821946}" name="shut_down_Output2"/>
+    <tableColumn id="26" xr3:uid="{D0F85E7B-D704-45A0-BE99-26E3A1F08634}" name="ramp_up"/>
+    <tableColumn id="27" xr3:uid="{DC89C4F2-3857-45F2-B4A0-642F9C1613A6}" name="ramp_down"/>
+    <tableColumn id="30" xr3:uid="{98C94D50-387A-4596-96E7-17395B3AF62E}" name="start_up_limit"/>
+    <tableColumn id="32" xr3:uid="{D45EEC70-4FBC-44FF-9E9A-E2D38C52BF94}" name="shut_down_limit"/>
     <tableColumn id="36" xr3:uid="{1EE4296C-1C46-4898-8A2C-751BA3F253FD}" name="start_up_cost"/>
     <tableColumn id="37" xr3:uid="{6C1B7D2C-C9EA-4CA7-8F83-97D715B96047}" name="shut_down_cost"/>
-    <tableColumn id="11" xr3:uid="{8AEC88A1-B64A-43A2-AC89-3B27AB4ACAD7}" name="Cost_invest"/>
     <tableColumn id="25" xr3:uid="{95F69D80-80E7-42BD-B42F-59F3C3DC485B}" name="units_on_cost"/>
     <tableColumn id="12" xr3:uid="{F1A83AF0-CF23-4B00-9076-4E28DF8DAFD3}" name="fom_cost"/>
-    <tableColumn id="24" xr3:uid="{4D171E04-3F62-4131-BD43-B8A8D03B8530}" name="vom_cost"/>
-    <tableColumn id="13" xr3:uid="{AD4231E3-CB94-4597-81A2-E13C044BBD2D}" name="vom_cost_Input1"/>
-    <tableColumn id="21" xr3:uid="{400CD12D-8ADA-4557-B7CA-1464809EAFF0}" name="vom_cost_Input2"/>
-    <tableColumn id="22" xr3:uid="{3FA572AD-B473-45F7-A244-2DF38E57A2D3}" name="vom_cost_Output1"/>
-    <tableColumn id="23" xr3:uid="{1F97C2CD-E522-4842-8E10-F9B9566A6723}" name="vom_cost_Output2"/>
-    <tableColumn id="34" xr3:uid="{7D7F0E89-0553-40E4-9D5A-219BF1741787}" name="minimum_op_point"/>
-    <tableColumn id="15" xr3:uid="{3F5A9F9C-E4A0-47A3-8DED-03601A5E69E7}" name="minimum_op_point_Input1"/>
-    <tableColumn id="14" xr3:uid="{F581A940-BB38-475E-A7A0-4B51036FD657}" name="minimum_op_point_Input2"/>
-    <tableColumn id="7" xr3:uid="{8C79F2B3-9B9B-4A71-8D25-2711D03E0B94}" name="minimum_op_point_Output1"/>
-    <tableColumn id="6" xr3:uid="{3D12A0E5-5B1C-4BD0-B64A-8818311A004A}" name="minimum_op_point_Output2"/>
+    <tableColumn id="21" xr3:uid="{400CD12D-8ADA-4557-B7CA-1464809EAFF0}" name="vom_cost"/>
+    <tableColumn id="15" xr3:uid="{3F5A9F9C-E4A0-47A3-8DED-03601A5E69E7}" name="minimum_op_point"/>
     <tableColumn id="38" xr3:uid="{957AF85B-8792-4643-A381-29FACAA69887}" name="resolution_output" dataDxfId="26"/>
     <tableColumn id="39" xr3:uid="{BCE2350E-150B-4A7E-94BF-BB3BC7E31016}" name="demand" dataDxfId="25"/>
     <tableColumn id="16" xr3:uid="{5F06ED78-6F41-4BEA-9209-36407E8BCFDC}" name="initial_units_on"/>
@@ -1316,26 +1295,26 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C1664CC4-80CB-414D-BAFE-57FF9635D79F}" name="Table5" displayName="Table5" ref="A1:Q8" totalsRowShown="0" headerRowDxfId="11" dataDxfId="12" headerRowBorderDxfId="20" tableBorderDxfId="21" totalsRowBorderDxfId="19">
-  <autoFilter ref="A1:Q8" xr:uid="{C1664CC4-80CB-414D-BAFE-57FF9635D79F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C1664CC4-80CB-414D-BAFE-57FF9635D79F}" name="Table5" displayName="Table5" ref="A1:Q12" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21" totalsRowBorderDxfId="20">
+  <autoFilter ref="A1:Q12" xr:uid="{C1664CC4-80CB-414D-BAFE-57FF9635D79F}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{2BE3E317-773B-4E82-9035-69A43C6CB21B}" name="Unit" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{22613EE0-390D-4B04-9A9B-6D5554D1C8ED}" name="Object_type" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{54CD83B6-B63A-4ABD-99BD-9ED391BFB078}" name="Input1" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{F183F72C-A42E-4046-9CA2-B23C4DD3765C}" name="Input2" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{CA468CF3-FA3A-4DED-8C1A-ED8385FD2167}" name="Input3" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{6C9174ED-453E-45B1-B2C9-DC69B7CB535A}" name="Input4" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{513A63E4-7BE3-4AF5-AC5E-11EB4AF0D7AD}" name="Output1" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{4623E738-60A2-497B-BD61-91A608129A61}" name="Output2" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{5596B30B-5CDD-4E38-8C15-9C5F774E9B1F}" name="Output3" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{CD6FCAF1-2543-4CF8-99F5-E24DBA2DEDC0}" name="Output4" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{88F2DAC4-E2C3-4C34-B709-2523E8BE5B1F}" name="Relation_In1_In2" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{3C190E97-FD9A-4F36-8EBF-717B1ECA00B1}" name="Relation_In1_In3" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{043147D8-AE82-457E-8F19-EB4AE9D43B9E}" name="Relation_In1_In4" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{A190E492-7FDF-403D-B8AF-17448A48E47F}" name="Relation_In1_Out1" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{26E8D274-C985-4E20-8920-2BAC0A372552}" name="Relation_Out1_Out2" dataDxfId="4"/>
-    <tableColumn id="16" xr3:uid="{4E0BCAE8-11F8-4D98-AECC-86C8A3C2B5C1}" name="Relation_Out1_Out3" dataDxfId="1"/>
-    <tableColumn id="17" xr3:uid="{3C0369D5-4DD0-4B4B-9480-0C4665C0BC59}" name="Relation_Out1_Out4" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{2BE3E317-773B-4E82-9035-69A43C6CB21B}" name="Unit" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{22613EE0-390D-4B04-9A9B-6D5554D1C8ED}" name="Object_type" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{54CD83B6-B63A-4ABD-99BD-9ED391BFB078}" name="Input1" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{F183F72C-A42E-4046-9CA2-B23C4DD3765C}" name="Input2" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{CA468CF3-FA3A-4DED-8C1A-ED8385FD2167}" name="Input3" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{6C9174ED-453E-45B1-B2C9-DC69B7CB535A}" name="Input4" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{513A63E4-7BE3-4AF5-AC5E-11EB4AF0D7AD}" name="Output1" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{4623E738-60A2-497B-BD61-91A608129A61}" name="Output2" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{5596B30B-5CDD-4E38-8C15-9C5F774E9B1F}" name="Output3" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{CD6FCAF1-2543-4CF8-99F5-E24DBA2DEDC0}" name="Output4" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{88F2DAC4-E2C3-4C34-B709-2523E8BE5B1F}" name="Relation_In1_In2" dataDxfId="9"/>
+    <tableColumn id="14" xr3:uid="{3C190E97-FD9A-4F36-8EBF-717B1ECA00B1}" name="Relation_In1_In3" dataDxfId="8"/>
+    <tableColumn id="15" xr3:uid="{043147D8-AE82-457E-8F19-EB4AE9D43B9E}" name="Relation_In1_In4" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{A190E492-7FDF-403D-B8AF-17448A48E47F}" name="Relation_In1_Out1" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{26E8D274-C985-4E20-8920-2BAC0A372552}" name="Relation_Out1_Out2" dataDxfId="5"/>
+    <tableColumn id="16" xr3:uid="{4E0BCAE8-11F8-4D98-AECC-86C8A3C2B5C1}" name="Relation_Out1_Out3" dataDxfId="4"/>
+    <tableColumn id="17" xr3:uid="{3C0369D5-4DD0-4B4B-9480-0C4665C0BC59}" name="Relation_Out1_Out4" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1351,7 +1330,7 @@
     <tableColumn id="3" xr3:uid="{0B221EED-10BC-4C34-AC5E-37A826B1E8AE}" name="Input2"/>
     <tableColumn id="4" xr3:uid="{13095F0A-BCF6-40A3-B029-60B11214B154}" name="Output1"/>
     <tableColumn id="5" xr3:uid="{4C6B3E52-C4A2-4D67-B50B-9DAA089E0399}" name="Output2"/>
-    <tableColumn id="22" xr3:uid="{551A8663-4680-4147-9E64-4B9A8EA76642}" name="Connection_type" dataDxfId="24"/>
+    <tableColumn id="22" xr3:uid="{551A8663-4680-4147-9E64-4B9A8EA76642}" name="Connection_type" dataDxfId="2"/>
     <tableColumn id="6" xr3:uid="{5DF4D35D-AD4C-4648-BC90-B2BA8F975A09}" name="Cap_Input1_existing"/>
     <tableColumn id="15" xr3:uid="{C0BCA9EF-0E20-40E5-9820-0EA6AB1DE457}" name="Cap_Input1_max"/>
     <tableColumn id="14" xr3:uid="{D4F16D16-99DE-47DA-B08A-6DD56FEBC7A4}" name="Cap_Input2_existing"/>
@@ -1370,7 +1349,7 @@
     <tableColumn id="21" xr3:uid="{EC2CC790-C17D-4744-A981-3984808E5B33}" name="vom_cost_Input2"/>
     <tableColumn id="24" xr3:uid="{41B338E4-2058-41E9-8000-97D77450FBC3}" name="vom_cost_Output1"/>
     <tableColumn id="25" xr3:uid="{DDAFCF0A-1EF1-4B7B-9742-01F9FA7A22E5}" name="vom_cost_Output2"/>
-    <tableColumn id="29" xr3:uid="{79DE3A19-CED6-47DE-AEF5-F6BB2D320F24}" name="connection_investment_tech_lifetime" dataDxfId="23"/>
+    <tableColumn id="29" xr3:uid="{79DE3A19-CED6-47DE-AEF5-F6BB2D320F24}" name="connection_investment_tech_lifetime" dataDxfId="1"/>
     <tableColumn id="30" xr3:uid="{09434E4A-7BF5-4547-9708-EA3F0F7ADC8E}" name="initial_connections_invested_available"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1381,7 +1360,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}" name="Table134" displayName="Table134" ref="A1:K5" totalsRowShown="0">
   <autoFilter ref="A1:K5" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{59CF1CEF-E7FA-4B7F-9443-D4A6EAAB7A8F}" name="Storage" dataDxfId="22">
+    <tableColumn id="1" xr3:uid="{59CF1CEF-E7FA-4B7F-9443-D4A6EAAB7A8F}" name="Storage" dataDxfId="0">
       <calculatedColumnFormula array="1">_xlfn._xlws.FILTER(Connections!A2:A100,ISNUMBER(FIND("storage",Connections!A2:A100)))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{8C29206C-8DC6-44DB-A8D1-3D5625C277AD}" name="Object_type"/>
@@ -1706,321 +1685,263 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
-  <dimension ref="A1:AL7"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC17" sqref="AC17"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.81640625" customWidth="1"/>
     <col min="2" max="2" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.1796875" customWidth="1"/>
-    <col min="7" max="7" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="13.36328125" customWidth="1"/>
-    <col min="11" max="11" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="22" width="10.54296875" customWidth="1"/>
-    <col min="23" max="24" width="12.7265625" customWidth="1"/>
-    <col min="25" max="25" width="11" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.26953125" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="27" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="10.54296875" customWidth="1"/>
+    <col min="12" max="12" width="12.7265625" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>109</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G1" t="s">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="H1" t="s">
-        <v>4</v>
+        <v>113</v>
       </c>
       <c r="I1" t="s">
         <v>112</v>
       </c>
       <c r="J1" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="K1" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="L1" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="O1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="P1" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="Q1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="R1" t="s">
-        <v>19</v>
-      </c>
-      <c r="S1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U1" t="s">
-        <v>73</v>
-      </c>
-      <c r="V1" t="s">
-        <v>74</v>
-      </c>
-      <c r="W1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5">
+        <v>0.75</v>
+      </c>
+      <c r="M5">
+        <v>4.34</v>
+      </c>
+      <c r="O5">
+        <v>0.02</v>
+      </c>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="X1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y1" t="s">
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>20.192799999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8">
+        <v>0.7</v>
+      </c>
+      <c r="E8" t="s">
         <v>26</v>
       </c>
-      <c r="Z1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>0.5</v>
+      </c>
+      <c r="H8">
+        <v>0.5</v>
+      </c>
+      <c r="I8">
+        <v>0.5</v>
+      </c>
+      <c r="M8">
+        <v>4.45</v>
+      </c>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>78</v>
       </c>
-      <c r="B2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ2" s="1"/>
-      <c r="AK2" s="1"/>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+      <c r="M9">
+        <v>0.11929223744292237</v>
+      </c>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" t="s">
+        <v>76</v>
+      </c>
+      <c r="N10">
+        <v>1.4865951742627345E-3</v>
+      </c>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" t="s">
         <v>87</v>
       </c>
-      <c r="H3" t="s">
-        <v>105</v>
-      </c>
-      <c r="K3">
-        <v>0.75</v>
-      </c>
-      <c r="Y3">
-        <v>4.34</v>
-      </c>
-      <c r="AB3">
-        <v>1.4865951742627345E-3</v>
-      </c>
-      <c r="AF3">
-        <v>0.02</v>
-      </c>
-      <c r="AJ3" s="1"/>
-      <c r="AK3" s="1"/>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G4" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB4">
+      <c r="N11">
         <v>26.81</v>
       </c>
-      <c r="AJ4" s="1"/>
-      <c r="AK4" s="1"/>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AK5" s="2">
-        <v>20.192799999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G6" t="s">
-        <v>91</v>
-      </c>
-      <c r="H6" t="s">
-        <v>121</v>
-      </c>
-      <c r="I6" t="s">
-        <v>105</v>
-      </c>
-      <c r="K6">
-        <v>0.7</v>
-      </c>
-      <c r="L6" t="s">
-        <v>34</v>
-      </c>
-      <c r="M6">
-        <v>0.5</v>
-      </c>
-      <c r="O6">
-        <v>0.5</v>
-      </c>
-      <c r="Q6">
-        <v>0.5</v>
-      </c>
-      <c r="S6">
-        <v>0.5</v>
-      </c>
-      <c r="Y6">
-        <v>4.45</v>
-      </c>
-      <c r="AJ6" s="1"/>
-      <c r="AK6" s="1"/>
-      <c r="AL6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y7">
-        <v>0.11929223744292237</v>
-      </c>
-      <c r="AB7">
-        <v>1.4865951742627345E-3</v>
-      </c>
-      <c r="AJ7" s="1"/>
-      <c r="AK7" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ2:AJ7" xr:uid="{D92CB468-B7A9-4082-9B81-D3B4634F286E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P11" xr:uid="{D92CB468-B7A9-4082-9B81-D3B4634F286E}">
       <formula1>"h, D, W, M, Q, Y"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2046,11 +1967,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CABA7C5-6230-4207-9D35-0A95D86E66AC}">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2064,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>1</v>
@@ -2073,10 +1992,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>3</v>
@@ -2085,46 +2004,46 @@
         <v>4</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="7"/>
@@ -2139,207 +2058,315 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>84</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3">
-        <v>5.8500000000000002E-3</v>
-      </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3">
-        <v>1.76</v>
-      </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
+        <v>71</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>95</v>
-      </c>
+      <c r="A4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="3">
-        <v>3.529412E-3</v>
-      </c>
+      <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
-      <c r="N4" s="3">
-        <v>3.529412E-3</v>
-      </c>
+      <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3">
-        <v>17.277901743828668</v>
-      </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3">
-        <f>1/0.795</f>
-        <v>1.2578616352201257</v>
-      </c>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
+        <v>79</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4">
+        <v>5.8500000000000002E-3</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4">
+        <v>1.76</v>
+      </c>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>106</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3">
-        <v>5.1734967222388608</v>
+        <v>3.529412E-3</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3">
-        <f>1/0.96</f>
-        <v>1.0416666666666667</v>
-      </c>
-      <c r="O6" s="3">
-        <v>4.32</v>
-      </c>
+        <v>3.529412E-3</v>
+      </c>
+      <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H7" s="4"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3">
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4">
+        <v>17.277901743828668</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4">
+        <f>1/0.795</f>
+        <v>1.2578616352201257</v>
+      </c>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3">
+        <v>5.1734967222388608</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3">
+        <f>1/0.96</f>
+        <v>1.0416666666666667</v>
+      </c>
+      <c r="O8" s="3">
+        <v>4.32</v>
+      </c>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4">
         <v>7.2437800000000002E-4</v>
       </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3">
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4">
         <v>0.99</v>
       </c>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6">
+        <v>1</v>
+      </c>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4">
+        <v>1</v>
+      </c>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8">
+        <v>1</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2354,7 +2381,7 @@
           <x14:formula1>
             <xm:f>Drop_Down!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>B1:B8</xm:sqref>
+          <xm:sqref>B1:B12</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2398,10 +2425,10 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2416,7 +2443,7 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -2434,7 +2461,7 @@
         <v>9</v>
       </c>
       <c r="M1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N1" t="s">
         <v>10</v>
@@ -2443,63 +2470,63 @@
         <v>11</v>
       </c>
       <c r="P1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="R1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="S1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T1" t="s">
-        <v>39</v>
-      </c>
-      <c r="U1" t="s">
-        <v>26</v>
-      </c>
-      <c r="V1" t="s">
-        <v>28</v>
-      </c>
-      <c r="W1" t="s">
-        <v>29</v>
-      </c>
-      <c r="X1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>31</v>
-      </c>
       <c r="Z1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="AA1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H2">
         <v>1000</v>
@@ -2532,7 +2559,7 @@
         <v>1</v>
       </c>
       <c r="Z2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="AA2">
         <v>1</v>
@@ -2540,25 +2567,25 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H3">
         <v>1000</v>
@@ -2588,7 +2615,7 @@
         <v>7.2835616438356163E-2</v>
       </c>
       <c r="Z3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="AA3">
         <v>1</v>
@@ -2596,25 +2623,25 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F4" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H4">
         <v>1000</v>
@@ -2644,7 +2671,7 @@
         <v>1.0958904109589041E-2</v>
       </c>
       <c r="Z4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="AA4">
         <v>1</v>
@@ -2652,19 +2679,19 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H5">
         <v>1000</v>
@@ -2682,7 +2709,7 @@
         <v>1</v>
       </c>
       <c r="Z5" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="AA5">
         <v>1</v>
@@ -2733,45 +2760,45 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -2786,7 +2813,7 @@
         <v>4.147E-2</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -2794,10 +2821,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -2812,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -2859,97 +2886,97 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/spine_projects/01_input_data/01_input_raw/methanol/Model_Data_Base_methanol_4_InOutputs.xlsx
+++ b/spine_projects/01_input_data/01_input_raw/methanol/Model_Data_Base_methanol_4_InOutputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/methanol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="13_ncr:1_{B63BCB0A-9012-4F55-92B6-F45564B797E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C9B3E93-63E4-45FE-9B4A-77A1A5CE0B4D}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="13_ncr:1_{B63BCB0A-9012-4F55-92B6-F45564B797E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E18B4070-4A74-4965-BC24-B89C745067E5}"/>
   <bookViews>
-    <workbookView xWindow="-19440" yWindow="-17610" windowWidth="20865" windowHeight="11880" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-22740" yWindow="-21600" windowWidth="25800" windowHeight="21000" activeTab="1" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="120">
   <si>
     <t>Unit</t>
   </si>
@@ -524,7 +524,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -537,7 +537,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1268,8 +1267,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}" name="Table1" displayName="Table1" ref="A1:R11" totalsRowShown="0">
-  <autoFilter ref="A1:R11" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}" name="Table1" displayName="Table1" ref="A1:R12" totalsRowShown="0">
+  <autoFilter ref="A1:R12" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{C73E51D0-1842-42F3-9C00-F0DBD2E661BE}" name="Unit"/>
     <tableColumn id="40" xr3:uid="{C2CFC5A4-5329-4F74-926A-18CEB18C062C}" name="Object_type"/>
@@ -1685,25 +1684,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.81640625" customWidth="1"/>
     <col min="2" max="2" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="10.54296875" customWidth="1"/>
-    <col min="12" max="12" width="12.7265625" customWidth="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.26953125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="18" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
@@ -1938,10 +1927,23 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" t="s">
+        <v>94</v>
+      </c>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P11" xr:uid="{D92CB468-B7A9-4082-9B81-D3B4634F286E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P12" xr:uid="{D92CB468-B7A9-4082-9B81-D3B4634F286E}">
       <formula1>"h, D, W, M, Q, Y"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1969,7 +1971,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CABA7C5-6230-4207-9D35-0A95D86E66AC}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2340,33 +2342,33 @@
       <c r="Q11" s="4"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8" t="s">
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8">
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6">
         <v>1</v>
       </c>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2393,9 +2395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C870BDA0-9E4C-481D-87BE-9D47789809C8}">
   <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
